--- a/Documentación/Psp's/Axel/InterfazConfiguración/DefectRemovalEfficiency.xlsx
+++ b/Documentación/Psp's/Axel/InterfazConfiguración/DefectRemovalEfficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CA6546-7B8E-495A-AB34-7FF431F6316A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89873777-DD85-439B-A454-06128114EDA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:18 PM el 4/12/2018</t>
+    <t>Reporte generado a las 12:40 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
